--- a/data/hotels_by_city/Dallas/Dallas_shard_143.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_143.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Paul N</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Both mornings were prepared to order and keeping in with Marriott standards, the facility and staff were up to par. The business meeting was a short drive away and there is a shopping center across the road with a selection of restaurants and other things to shop for if you are interested...More</t>
   </si>
   <si>
+    <t>Jim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r577526318-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>This was the first time I stayed in the Fort Worth area.  This hotel was recommended by our Amazon hosts.  The hotel was very comfortable and ultra modern.  The pool looked beautiful.  The staff as very helpful and friendly.  There were a ton of restuarants basically across the street from the property.More</t>
   </si>
   <si>
+    <t>Susan Redding G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r549531632-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The hotel rooms and lobby are new and very modern.  Bed was comfortable and clean.  All this was spoiled by short staff and hidden expenses.  You get one each decaf and regular coffee packets in a double room so you trek down to the lobby for what should be there.  We paid $10 extra for breakfast to learn it includes one cup of coffee ... refills are $2.50.  There is no complimentary coffee in the lobby for late arrivals or late breakfast.  We are not nuts for coffee, but travel and are accustomed to better hospitality.OMore</t>
   </si>
   <si>
+    <t>BeachesNwine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r549211987-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>We stayed Christmas Eve and the place was packed!  Very nice, clean property.  I was first given a room and it smelled like smoke so they switched me to another room.  Rooms are spacious, bathrooms beautiful, everything is clean, beds comfy.  There is a nice pool, fire pit and big table outside for nicer weather.  As all courtyards, breakfast is not included but there is a little bistro.  Poor guy was swamped Christmas morning, but he did a great job.  Definitely a great stay!More</t>
   </si>
   <si>
+    <t>DrAwesomepants</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r533542603-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>Our room was clean and tidy. The design is great. Enjoyed the balcony view at night. Service was great! Close to many cute shops, grocery, and retail stores. Would definitely come back here the next time I visit Texas. More</t>
   </si>
   <si>
+    <t>Donna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r529607571-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>Lovely new property!  Close to everything and the outdoor spaces are beautiful!!  Perfect for what I needed.  Highly recommend for business travelers heading to the area.  Also would recommend for anyone having a family event as their meeting and outdoor spaces would be perfect!More</t>
   </si>
   <si>
+    <t>susanlst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r524110798-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>My daughter and I stayed here for a weekend visit. We loved the clean room, the comfortable bedding, and the spacious bathroom. The room is equipped with a small dorm size refrigerator and a small coffee pot, a small microwave for heating up leftovers would have been really appreciated. The towels were fresh and soft. There was a magnifying mirror which was very appreciated by my over 40 eyes.  The room only came with 3 large towels, not enough for two women with lots of hair to dry. The front desk staff was polite and professional. We were disappointed that the bar did not open promptly at 5:30 on Friday night, apparently a staff member did not arrive as scheduled. The Manager delivered our drinks poolside - which we were grateful for. Speaking of the pool, the water was FREEZING cold, too cold to enjoy! Was it being cooled on purpose? The weather was in the high 80's so we were expecting a refreshing pool, but it was downright chilly.  We tried to get a nightcap on Saturday night to take to our rooms. The bartender apologized for not having any ball sized glasses - she served us doubles in very large tumblers - not really a big deal, but she poured and charged us for doubles, and I ordered only two single shots on the rocks. Sunday morning we tried to have breakfast at the restaurant, but again, no...My daughter and I stayed here for a weekend visit. We loved the clean room, the comfortable bedding, and the spacious bathroom. The room is equipped with a small dorm size refrigerator and a small coffee pot, a small microwave for heating up leftovers would have been really appreciated. The towels were fresh and soft. There was a magnifying mirror which was very appreciated by my over 40 eyes.  The room only came with 3 large towels, not enough for two women with lots of hair to dry. The front desk staff was polite and professional. We were disappointed that the bar did not open promptly at 5:30 on Friday night, apparently a staff member did not arrive as scheduled. The Manager delivered our drinks poolside - which we were grateful for. Speaking of the pool, the water was FREEZING cold, too cold to enjoy! Was it being cooled on purpose? The weather was in the high 80's so we were expecting a refreshing pool, but it was downright chilly.  We tried to get a nightcap on Saturday night to take to our rooms. The bartender apologized for not having any ball sized glasses - she served us doubles in very large tumblers - not really a big deal, but she poured and charged us for doubles, and I ordered only two single shots on the rocks. Sunday morning we tried to have breakfast at the restaurant, but again, no one was on duty. It seems staffing of the restaurant/bar was an issue for the whole weekend. We were quite happy with the Panera Bread Co, that is right across the parking lot from the hotel.More</t>
   </si>
   <si>
+    <t>dmark521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r518193001-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Marcelo_Campolina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r516310962-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>The hotel room is excellent, with two comfortable beds, good shower but no appliances in the room. No mini bar or microwave, which is not good if you are planning to stay a little longer... The kitchen closes at 10PM, so when I got to the hotel at 10:30PM, I had to buy frozen food at the hotel market, heat it in the lobby and then go to my room. It was not a good experience. My fare also included breakfast, but there is no buffet breakfast in the hotel. You just receive a voucher for 1 food and 1 drink on the hotel Starbucks.More</t>
   </si>
   <si>
+    <t>joywall75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r509145061-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>I was there for a meeting on August 4 and 5! Checking in was a breeze with a personable and customer-oriented female staff member with red hair.I ordered Asian Chicken Salad in the Bistro for dinner and the Morning Scramble for breakfast. Both meals were delicious.My room was immaculate.  Thanks for a pleasant stay. I look forward to staying here again.</t>
   </si>
   <si>
+    <t>Ranita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r506001997-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>brownfam00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r491354506-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>rpeaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r490567980-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -459,6 +498,9 @@
     <t>I booked a room here 4 months ago on hotels.com and called three times since then to confirm my reservation. When we got here they did not have the room I reserved. A man named Barren at the front desk was so rude about the whole thing telling us it's first come first serve even though we had a reservation. Then he told us no managers worked on the weekend. Told my husband and I if we didn't like it we could go stay somewhere else. Then walked away from  the front desk. Then went and told the bartender he wasn't going to deal with these people. After speaking to a manager over the phone we were giving a room with what is clearly a queen we paid for a king. The room smells funny and is dirty. The bathroom has stains on the floor like it's not been moped. The ac barley works, and the bed is as hard as a rock. We also have zero cell phone use in the building. The smell is so bad we had to buy a candle to cover it up. Don't stay here unless you prepared to be treated like you staying at motel 6.More</t>
   </si>
   <si>
+    <t>Kathy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r484779319-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>The hotel is in a great locations.  The property is clean, new, and modern. Lots of restaurants close by within walking distance. As a matter of fact there is a walking trail behind the hotel. I highly recommend this property. The hotel front desk staff and housekeeping will go over and above to assist you as the guest. The only critic is the Bistro. It needs work, they were out of a lot of the menu options. Service was slow. The Bistro staff was very kind and apologetic. The restaurant management should fix what the front line employees cannot. My favorite Bistro was in DC. So I know it can be done. More</t>
   </si>
   <si>
+    <t>Trampus L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r478999669-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,6 +543,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r478022490-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>The good thing about this hotel for me is the location. I come here for work twice a month, and I don't have to fight traffic, so I like that. The bad things are as many have mentioned, no coffee other than Starbucks and even then it's not as easy as one would think, the staff is  slow and usually out of something...last week it was creamer. As someone mentioned they give you 1 packet in your room, so you'll be downstairs waiting in the long line in the morning.With the exception of Brittany at the front desk, the staff is horrible, expect a line, but not any smiles. In fact, the guy working there in the day time is the absolute worst. You'll probably find him outside smoking or behind the desk glued to his phone - dude, get a different job it's pretty obvious you don't like the one you have! I do like that they have laundry soap and fabric softners in the laundry room for free!Rooms are nice but the dripping water on the metal plate is annoying - I just put a towel over the plate.Overall, I simply don't ask anything of the front desk or the people at the cafe and it's fine.More</t>
   </si>
   <si>
+    <t>TropicalTraveler78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r460004450-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>Nice attractive design and very modern rooms and it appears to be a new hotel which is all I can say that was good. But it will definitely not last because you can tell it is cheaply run. The staff is unprofessional, not friendly, poorly trained and not helpful. More than once I witnessed not one person working in the lobby with the phone ringing off the hook and a line to check in.  Fitness center had no headphones, staff didn't even know they were supposed to have them and then when asked they called the owner and he said they forgot to order them.  you get the picture. The cafe is horrible and has very slow service and poor choices if you are trying to eat healthy.   The service is very slow and unfriendly and the employees chit chat with each other with no focus on the guest.The Euro design of the shower gets water all over the bathroom floor and the shower dripping hits the metal plate which makes noise all night. I would not stay here again-- and did I mention it was not really a good deal either at $150/night.  There are plenty of other better options not far away.More</t>
   </si>
   <si>
+    <t>kcatmull</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r458708825-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -585,6 +639,9 @@
     <t>Easy access to/from interstate and my business meetings.  Nice, modern, new hotel. Hotel staff were helpful and friendly.  Great amenities including bar, limited food service, great lobby for gathering and relaxing.  Nice outdoor pool (with lots of seating) and a roomy gym.  My king room was very nice, clean, and comfortably laid out.  Note: odd numbered rooms face the pool.</t>
   </si>
   <si>
+    <t>Stephanie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r452150856-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -609,6 +666,9 @@
     <t>Hotel was very nice! Staff was very professional however, the bistro needs help! Breakfast was ok but needs a little work, . I ordered hot wings and veggies sticks for dinner and It was disgusting. The hot wings were old and cold! The carrot sticks were old and slimy. If you're not going to handle the food properly then please take it off the menu..it could make someone very sick!!!  More</t>
   </si>
   <si>
+    <t>cerra12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r413888463-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>Nice new hotel.  Everything was clean.  The restaurant was decent, but had a limited selection of food.  I arrived in a rainstorm and outside the front entrance there was about 2 inches of water.  The hot and cold water was reversed in my sink.  I did not get maid service the second day I was there.More</t>
   </si>
   <si>
+    <t>jennysanders2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r411210566-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,6 +720,9 @@
     <t>Upon check in I had to wait for the desk clerk to finish her cigarette...we had just flown in from San Diego, CA...so we were anxious to get settled and get over to our family's house.  Room was fine, clean.  Had to continuously ask for soaps, shampoos, toiletries and towels.  We had a family of 4 staying and they never gave us four towels/washcloths and/or enough toiletries.We were there for a family wedding.  On the second morning we had no water...it was shut off and we were never notified.  Upon calling the front desk he told me it would maybe be turned back on around 1:00pm.  Which our event was starting around 2.  I said that wasn't going to work based on our time schedule and if he had any other accommodations.  None were offered.  Luckily the watered stayed on but it was cold.  Construction going on and was noisy and dusty.  I realize this hotel is rather new but the loose ends were definitely not tied up before opening.  We have been long time Marriott customers and my husband stays in multiple locations for business.  Customer service was poor and there was no sort of apology or accommodation for their lack of readiness!More</t>
   </si>
   <si>
+    <t>Ask2416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r405932138-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -675,6 +741,9 @@
     <t>Stayed for one night Room wasn't ready on arrival 6pm. Staff very nice Room standard and new but the a/c system buzzes and then starts.  In the wall type.  I couldn't sleep period. Bed 7/10 Pillows 5/10. Really industrial. Management should try to sleep on these pillows.  Yikes!Starbucks / bistro. 10/10. Had a excellent no charge platinum level cappuccino.  Really good and right in the lobby at 615am Beware construction on all the highways nearby.  Plan extra 20 minutes for any trip. It took is 30 minutes to get to Capitol grill in downtown. More</t>
   </si>
   <si>
+    <t>CBEB1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r405022558-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +762,9 @@
     <t>The hotel is brand new. Decor and lobby are standard Courtyard fare. The outdoor pool and firepit area were nicely done. There are a number of newish chain restaurants in walking distance as well. My only complaint - and the reason I ding'd it one green circle - was that in the bathrooms, they installed those half wall partitions next to the shower instead of a full curtain or door. I don't understand why hotels do that. After I showered the bathroom was a sloppy mess. I hate those things. If you are going to spend money outfitting a brand new hotel, why skimp on the shower doors of all things? Maybe I'm alone here, but I enjoy a good shower and nothing is more annoying than having to worry about containing the water spray to a 2x2 area because there is no shower door. Next time I'm going to stay at a hotel with shower doors.More</t>
   </si>
   <si>
+    <t>Casandra H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r399715863-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
     <t>I was here soon after they first opened. It still smelled new. It's located within walking distance of restaurants and shopping. You have to cross a busy intersection in order to get to the shopping area. The room was nice. I was in an accessible room. I couldn't complain about too many aspects of the hotel. I did see two spiders in my room. A big one was in the bathtub and a baby one on the wall under the tv. One good thing that I liked about this place was the amount of outlets to charge your electronics. I think I counted at least 5 USB/AC chargers. My room came with a refrigerator. The wifi worked well enough for me to stream a live session on Adobe Connect without any interruption. The hotel had a Starbucks. I didn't try it. I plan on visiting this hotel again in about a month and a half. I would stay here again.More</t>
   </si>
   <si>
+    <t>Nancy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r390240295-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -732,6 +807,9 @@
     <t>The decor of this hotel is really nice!  The pool and surrounding area was great though there could have been more pool towels provided as our group took the last ones. Nice seating outdoors. I didn't get any food so can't comment. Starbucks coffee is supposed to be available all day though I didn't get any (the desk clerk also acted as barista I think). The server was down when I checked in. I had trouble connecting to wifi but no one answered the phone when I called the front desk. He was outside having a smoke. No light bulb had been put in the fixture between the beds but being such a new hotel, I'm assuming there may be small things they didn't know weren't done. The bed was very comfortable, the air conditioning great, the room was spacious and the manager friendly. There are interesting books in the lobby to read while you relax and lots of plugs for your devices incorporated into the furniture. I plan to stay here again.More</t>
   </si>
   <si>
+    <t>Eric P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r387214731-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -745,6 +823,9 @@
   </si>
   <si>
     <t xml:space="preserve">Loved the brand new hotel.  Very well done.  Pool was perfect.  We enjoyed the work out room.  Very close to restaurants and shopping.  The only negative we found was check in.  Had to wait a few minutes.  The gentleman checked us no problem but not very friendly.  Loved the hotel but check in makes us wonder if better options are closer to Fort Worth.  </t>
+  </si>
+  <si>
+    <t>NedMorgan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r386192510-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
@@ -1267,43 +1348,47 @@
       <c r="A2" t="n">
         <v>65011</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>12517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1315,56 +1400,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65011</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>23382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1382,56 +1471,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65011</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127387</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1443,56 +1536,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65011</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1504,56 +1601,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65011</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127389</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1565,56 +1666,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65011</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5658</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1626,56 +1731,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65011</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127390</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1693,56 +1802,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65011</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127391</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1762,50 +1875,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65011</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127392</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1821,56 +1938,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65011</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1884,50 +2005,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65011</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1947,50 +2072,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65011</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127395</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2008,50 +2137,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65011</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2063,56 +2196,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65011</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>6369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2126,50 +2263,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65011</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127397</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2183,50 +2324,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65011</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2242,56 +2387,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65011</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>93360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2309,56 +2458,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65011</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127398</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2378,50 +2531,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65011</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127390</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2439,50 +2596,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65011</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>6262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2494,56 +2655,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65011</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127399</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -2561,56 +2726,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65011</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127400</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2628,56 +2797,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65011</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127401</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2689,56 +2862,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65011</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127402</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -2758,50 +2935,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65011</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127403</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -2819,50 +3000,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65011</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>18307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -2880,50 +3065,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65011</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>8069</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2937,50 +3126,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65011</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127404</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3000,7 +3193,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_143.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_143.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Paul N</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r601789600-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>9793318</t>
+  </si>
+  <si>
+    <t>601789600</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Nice Staff- Safe Good Location</t>
+  </si>
+  <si>
+    <t>The staff here was very friendly and efficient. The hotel is pretty and the pool area is really big and nice. I would definitely recommend the hotel and plan to return. I agree- ask for extra washcloths- for some reason they must be short on those. The breakfast is not included and was like Starbucks prices. I recommend eating elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Patrick H, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The staff here was very friendly and efficient. The hotel is pretty and the pool area is really big and nice. I would definitely recommend the hotel and plan to return. I agree- ask for extra washcloths- for some reason they must be short on those. The breakfast is not included and was like Starbucks prices. I recommend eating elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r600764045-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>600764045</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice part of town, new+modern, Good price </t>
+  </si>
+  <si>
+    <t>-The price was great for the quality of hotel. Very nice, modern hotel. Not too family friendly for young kiddos.-But very nice area of town. Does not include breakfast-Not many towels in bathroom, ask for more washcloths.Only shower, no bathtub-Mini fridge, no microwave. Netflix and Hulu on tv which was NICE -Very comfortable beds. Nice pool area. -Was very noisy, but a lot of hotels can be. Near many restaurants and a Kroger Marketplace. MoreShow less</t>
+  </si>
+  <si>
+    <t>Patrick H, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>-The price was great for the quality of hotel. Very nice, modern hotel. Not too family friendly for young kiddos.-But very nice area of town. Does not include breakfast-Not many towels in bathroom, ask for more washcloths.Only shower, no bathtub-Mini fridge, no microwave. Netflix and Hulu on tv which was NICE -Very comfortable beds. Nice pool area. -Was very noisy, but a lot of hotels can be. Near many restaurants and a Kroger Marketplace. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r584423224-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>9793318</t>
-  </si>
-  <si>
     <t>584423224</t>
   </si>
   <si>
@@ -180,18 +231,15 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Patrick H, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
+    <t>Patrick H, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
   </si>
   <si>
     <t>Both mornings were prepared to order and keeping in with Marriott standards, the facility and staff were up to par. The business meeting was a short drive away and there is a shopping center across the road with a selection of restaurants and other things to shop for if you are interested...More</t>
   </si>
   <si>
-    <t>Jim H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r577526318-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -210,18 +258,15 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t>Julian S, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Julian S, Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
   </si>
   <si>
     <t>This was the first time I stayed in the Fort Worth area.  This hotel was recommended by our Amazon hosts.  The hotel was very comfortable and ultra modern.  The pool looked beautiful.  The staff as very helpful and friendly.  There were a ton of restuarants basically across the street from the property.More</t>
   </si>
   <si>
-    <t>Susan Redding G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r549531632-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,9 +297,6 @@
     <t>The hotel rooms and lobby are new and very modern.  Bed was comfortable and clean.  All this was spoiled by short staff and hidden expenses.  You get one each decaf and regular coffee packets in a double room so you trek down to the lobby for what should be there.  We paid $10 extra for breakfast to learn it includes one cup of coffee ... refills are $2.50.  There is no complimentary coffee in the lobby for late arrivals or late breakfast.  We are not nuts for coffee, but travel and are accustomed to better hospitality.OMore</t>
   </si>
   <si>
-    <t>BeachesNwine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r549211987-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,15 +312,9 @@
     <t>We stayed Christmas Eve and the place was packed!  Very nice, clean property.  I was first given a room and it smelled like smoke so they switched me to another room.  Rooms are spacious, bathrooms beautiful, everything is clean, beds comfy.  There is a nice pool, fire pit and big table outside for nicer weather.  As all courtyards, breakfast is not included but there is a little bistro.  Poor guy was swamped Christmas morning, but he did a great job.  Definitely a great stay!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed Christmas Eve and the place was packed!  Very nice, clean property.  I was first given a room and it smelled like smoke so they switched me to another room.  Rooms are spacious, bathrooms beautiful, everything is clean, beds comfy.  There is a nice pool, fire pit and big table outside for nicer weather.  As all courtyards, breakfast is not included but there is a little bistro.  Poor guy was swamped Christmas morning, but he did a great job.  Definitely a great stay!More</t>
   </si>
   <si>
-    <t>DrAwesomepants</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r533542603-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,9 +342,6 @@
     <t>Our room was clean and tidy. The design is great. Enjoyed the balcony view at night. Service was great! Close to many cute shops, grocery, and retail stores. Would definitely come back here the next time I visit Texas. More</t>
   </si>
   <si>
-    <t>Donna W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r529607571-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -333,9 +366,6 @@
     <t>Lovely new property!  Close to everything and the outdoor spaces are beautiful!!  Perfect for what I needed.  Highly recommend for business travelers heading to the area.  Also would recommend for anyone having a family event as their meeting and outdoor spaces would be perfect!More</t>
   </si>
   <si>
-    <t>susanlst</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r524110798-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,9 +393,6 @@
     <t>My daughter and I stayed here for a weekend visit. We loved the clean room, the comfortable bedding, and the spacious bathroom. The room is equipped with a small dorm size refrigerator and a small coffee pot, a small microwave for heating up leftovers would have been really appreciated. The towels were fresh and soft. There was a magnifying mirror which was very appreciated by my over 40 eyes.  The room only came with 3 large towels, not enough for two women with lots of hair to dry. The front desk staff was polite and professional. We were disappointed that the bar did not open promptly at 5:30 on Friday night, apparently a staff member did not arrive as scheduled. The Manager delivered our drinks poolside - which we were grateful for. Speaking of the pool, the water was FREEZING cold, too cold to enjoy! Was it being cooled on purpose? The weather was in the high 80's so we were expecting a refreshing pool, but it was downright chilly.  We tried to get a nightcap on Saturday night to take to our rooms. The bartender apologized for not having any ball sized glasses - she served us doubles in very large tumblers - not really a big deal, but she poured and charged us for doubles, and I ordered only two single shots on the rocks. Sunday morning we tried to have breakfast at the restaurant, but again, no...My daughter and I stayed here for a weekend visit. We loved the clean room, the comfortable bedding, and the spacious bathroom. The room is equipped with a small dorm size refrigerator and a small coffee pot, a small microwave for heating up leftovers would have been really appreciated. The towels were fresh and soft. There was a magnifying mirror which was very appreciated by my over 40 eyes.  The room only came with 3 large towels, not enough for two women with lots of hair to dry. The front desk staff was polite and professional. We were disappointed that the bar did not open promptly at 5:30 on Friday night, apparently a staff member did not arrive as scheduled. The Manager delivered our drinks poolside - which we were grateful for. Speaking of the pool, the water was FREEZING cold, too cold to enjoy! Was it being cooled on purpose? The weather was in the high 80's so we were expecting a refreshing pool, but it was downright chilly.  We tried to get a nightcap on Saturday night to take to our rooms. The bartender apologized for not having any ball sized glasses - she served us doubles in very large tumblers - not really a big deal, but she poured and charged us for doubles, and I ordered only two single shots on the rocks. Sunday morning we tried to have breakfast at the restaurant, but again, no one was on duty. It seems staffing of the restaurant/bar was an issue for the whole weekend. We were quite happy with the Panera Bread Co, that is right across the parking lot from the hotel.More</t>
   </si>
   <si>
-    <t>dmark521</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r518193001-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,9 +411,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Marcelo_Campolina</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r516310962-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,9 +435,6 @@
     <t>The hotel room is excellent, with two comfortable beds, good shower but no appliances in the room. No mini bar or microwave, which is not good if you are planning to stay a little longer... The kitchen closes at 10PM, so when I got to the hotel at 10:30PM, I had to buy frozen food at the hotel market, heat it in the lobby and then go to my room. It was not a good experience. My fare also included breakfast, but there is no buffet breakfast in the hotel. You just receive a voucher for 1 food and 1 drink on the hotel Starbucks.More</t>
   </si>
   <si>
-    <t>joywall75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r509145061-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -429,9 +450,6 @@
     <t>I was there for a meeting on August 4 and 5! Checking in was a breeze with a personable and customer-oriented female staff member with red hair.I ordered Asian Chicken Salad in the Bistro for dinner and the Morning Scramble for breakfast. Both meals were delicious.My room was immaculate.  Thanks for a pleasant stay. I look forward to staying here again.</t>
   </si>
   <si>
-    <t>Ranita H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r506001997-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -450,9 +468,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>brownfam00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r491354506-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,9 +486,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>rpeaster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r490567980-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,9 +510,6 @@
     <t>I booked a room here 4 months ago on hotels.com and called three times since then to confirm my reservation. When we got here they did not have the room I reserved. A man named Barren at the front desk was so rude about the whole thing telling us it's first come first serve even though we had a reservation. Then he told us no managers worked on the weekend. Told my husband and I if we didn't like it we could go stay somewhere else. Then walked away from  the front desk. Then went and told the bartender he wasn't going to deal with these people. After speaking to a manager over the phone we were giving a room with what is clearly a queen we paid for a king. The room smells funny and is dirty. The bathroom has stains on the floor like it's not been moped. The ac barley works, and the bed is as hard as a rock. We also have zero cell phone use in the building. The smell is so bad we had to buy a candle to cover it up. Don't stay here unless you prepared to be treated like you staying at motel 6.More</t>
   </si>
   <si>
-    <t>Kathy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r484779319-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,9 +531,6 @@
     <t>The hotel is in a great locations.  The property is clean, new, and modern. Lots of restaurants close by within walking distance. As a matter of fact there is a walking trail behind the hotel. I highly recommend this property. The hotel front desk staff and housekeeping will go over and above to assist you as the guest. The only critic is the Bistro. It needs work, they were out of a lot of the menu options. Service was slow. The Bistro staff was very kind and apologetic. The restaurant management should fix what the front line employees cannot. My favorite Bistro was in DC. So I know it can be done. More</t>
   </si>
   <si>
-    <t>Trampus L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r478999669-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,9 +549,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Mark D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r478022490-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,9 +573,6 @@
     <t>The good thing about this hotel for me is the location. I come here for work twice a month, and I don't have to fight traffic, so I like that. The bad things are as many have mentioned, no coffee other than Starbucks and even then it's not as easy as one would think, the staff is  slow and usually out of something...last week it was creamer. As someone mentioned they give you 1 packet in your room, so you'll be downstairs waiting in the long line in the morning.With the exception of Brittany at the front desk, the staff is horrible, expect a line, but not any smiles. In fact, the guy working there in the day time is the absolute worst. You'll probably find him outside smoking or behind the desk glued to his phone - dude, get a different job it's pretty obvious you don't like the one you have! I do like that they have laundry soap and fabric softners in the laundry room for free!Rooms are nice but the dripping water on the metal plate is annoying - I just put a towel over the plate.Overall, I simply don't ask anything of the front desk or the people at the cafe and it's fine.More</t>
   </si>
   <si>
-    <t>TropicalTraveler78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r460004450-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,9 +600,6 @@
     <t>Nice attractive design and very modern rooms and it appears to be a new hotel which is all I can say that was good. But it will definitely not last because you can tell it is cheaply run. The staff is unprofessional, not friendly, poorly trained and not helpful. More than once I witnessed not one person working in the lobby with the phone ringing off the hook and a line to check in.  Fitness center had no headphones, staff didn't even know they were supposed to have them and then when asked they called the owner and he said they forgot to order them.  you get the picture. The cafe is horrible and has very slow service and poor choices if you are trying to eat healthy.   The service is very slow and unfriendly and the employees chit chat with each other with no focus on the guest.The Euro design of the shower gets water all over the bathroom floor and the shower dripping hits the metal plate which makes noise all night. I would not stay here again-- and did I mention it was not really a good deal either at $150/night.  There are plenty of other better options not far away.More</t>
   </si>
   <si>
-    <t>kcatmull</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r458708825-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,9 +636,6 @@
     <t>Easy access to/from interstate and my business meetings.  Nice, modern, new hotel. Hotel staff were helpful and friendly.  Great amenities including bar, limited food service, great lobby for gathering and relaxing.  Nice outdoor pool (with lots of seating) and a roomy gym.  My king room was very nice, clean, and comfortably laid out.  Note: odd numbered rooms face the pool.</t>
   </si>
   <si>
-    <t>Stephanie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r452150856-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -666,7 +660,216 @@
     <t>Hotel was very nice! Staff was very professional however, the bistro needs help! Breakfast was ok but needs a little work, . I ordered hot wings and veggies sticks for dinner and It was disgusting. The hot wings were old and cold! The carrot sticks were old and slimy. If you're not going to handle the food properly then please take it off the menu..it could make someone very sick!!!  More</t>
   </si>
   <si>
-    <t>cerra12</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r451862181-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451862181</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Great Decor but.....</t>
+  </si>
+  <si>
+    <t>I love Courtyards and this one was no disappointment in the d for.  European style shower was nice.  The problem was the attention to details was very lacking.  The staff lacked that true hospitality feel with a few exceptions.  Also, the housekeeping was barely acceptable.  The bath vent was covered in dust and dirt and had not been cleaned in months!  The counter in the bath had water rings from previous guests.  The Bistro staff had to hunted down to get an order placed.  Right now this is nice place but I fear without some changes it will go downhill very quickly!  MoreShow less</t>
+  </si>
+  <si>
+    <t>I love Courtyards and this one was no disappointment in the d for.  European style shower was nice.  The problem was the attention to details was very lacking.  The staff lacked that true hospitality feel with a few exceptions.  Also, the housekeeping was barely acceptable.  The bath vent was covered in dust and dirt and had not been cleaned in months!  The counter in the bath had water rings from previous guests.  The Bistro staff had to hunted down to get an order placed.  Right now this is nice place but I fear without some changes it will go downhill very quickly!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r451311764-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>451311764</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Perfect for meetings!</t>
+  </si>
+  <si>
+    <t>The property is new so of course that's good but I can't give enough props to Ellen and the service team. They were great to work with and even helped me budget wise! I sent Ellen countless emails leading up to and during our event. She was prompt to respond every time. The F&amp;B team kept our group fed and caffeinated over a 3 day training. I'll definitely be using this location again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r447639923-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>447639923</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Good Room - Basic Amenities Lacking</t>
+  </si>
+  <si>
+    <t>For the 3 nights of our stay, we met many staff members.  A few were friendly, but overall, they were disengaged from serving customers.  At night, the desk was often unattended.  
+Basic amenities common at hotels were missing, most notably coffee and tea.  Room had coffee maker with two coffee packets.  Beyond that, the only other option was Starbucks in the lobby, open during the day and closed otherwise.  For anyone who keeps early/late hours, you are out of luck.  Service to get a simple cup of coffee was slow.  On one morning the credit card machine didn’t work and they had no change for cash payers.  Coffee is a basic amenity in hotels, and asking guests to buy it at Starbucks is not reasonable.
+Food service was prepared in kitchen and served in the regular lobby.  It is not a restaurant as one would typically expect based on their posting.  Once you received your plate, the servers were MIA.
+And the lobby was furnished with “art deco” chairs with high straight backs and hard cushion seats – definitely not suited for people wanting to relax and work or to sit and converse.  Lovely to look at (if you like art deco) but not a place to enjoy.  I stay up later than my family and like to use the lobby so that the light doesn’t keep them awake.  Not here!
+Most guests we saw seemed to be business people....For the 3 nights of our stay, we met many staff members.  A few were friendly, but overall, they were disengaged from serving customers.  At night, the desk was often unattended.  Basic amenities common at hotels were missing, most notably coffee and tea.  Room had coffee maker with two coffee packets.  Beyond that, the only other option was Starbucks in the lobby, open during the day and closed otherwise.  For anyone who keeps early/late hours, you are out of luck.  Service to get a simple cup of coffee was slow.  On one morning the credit card machine didn’t work and they had no change for cash payers.  Coffee is a basic amenity in hotels, and asking guests to buy it at Starbucks is not reasonable.Food service was prepared in kitchen and served in the regular lobby.  It is not a restaurant as one would typically expect based on their posting.  Once you received your plate, the servers were MIA.And the lobby was furnished with “art deco” chairs with high straight backs and hard cushion seats – definitely not suited for people wanting to relax and work or to sit and converse.  Lovely to look at (if you like art deco) but not a place to enjoy.  I stay up later than my family and like to use the lobby so that the light doesn’t keep them awake.  Not here!Most guests we saw seemed to be business people.  Not sure why or what that means.  Just an observation.  Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Julian S, General Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2016</t>
+  </si>
+  <si>
+    <t>For the 3 nights of our stay, we met many staff members.  A few were friendly, but overall, they were disengaged from serving customers.  At night, the desk was often unattended.  
+Basic amenities common at hotels were missing, most notably coffee and tea.  Room had coffee maker with two coffee packets.  Beyond that, the only other option was Starbucks in the lobby, open during the day and closed otherwise.  For anyone who keeps early/late hours, you are out of luck.  Service to get a simple cup of coffee was slow.  On one morning the credit card machine didn’t work and they had no change for cash payers.  Coffee is a basic amenity in hotels, and asking guests to buy it at Starbucks is not reasonable.
+Food service was prepared in kitchen and served in the regular lobby.  It is not a restaurant as one would typically expect based on their posting.  Once you received your plate, the servers were MIA.
+And the lobby was furnished with “art deco” chairs with high straight backs and hard cushion seats – definitely not suited for people wanting to relax and work or to sit and converse.  Lovely to look at (if you like art deco) but not a place to enjoy.  I stay up later than my family and like to use the lobby so that the light doesn’t keep them awake.  Not here!
+Most guests we saw seemed to be business people....For the 3 nights of our stay, we met many staff members.  A few were friendly, but overall, they were disengaged from serving customers.  At night, the desk was often unattended.  Basic amenities common at hotels were missing, most notably coffee and tea.  Room had coffee maker with two coffee packets.  Beyond that, the only other option was Starbucks in the lobby, open during the day and closed otherwise.  For anyone who keeps early/late hours, you are out of luck.  Service to get a simple cup of coffee was slow.  On one morning the credit card machine didn’t work and they had no change for cash payers.  Coffee is a basic amenity in hotels, and asking guests to buy it at Starbucks is not reasonable.Food service was prepared in kitchen and served in the regular lobby.  It is not a restaurant as one would typically expect based on their posting.  Once you received your plate, the servers were MIA.And the lobby was furnished with “art deco” chairs with high straight backs and hard cushion seats – definitely not suited for people wanting to relax and work or to sit and converse.  Lovely to look at (if you like art deco) but not a place to enjoy.  I stay up later than my family and like to use the lobby so that the light doesn’t keep them awake.  Not here!Most guests we saw seemed to be business people.  Not sure why or what that means.  Just an observation.  Will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r442184005-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>442184005</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>New property in a great area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This area has really blossomed and the hotel is surrounded by great dining and shopping options. The staff were friendly and accommodating. The rooms are not only new, but clean, well stocked, and very comfortable. Excellent free wifi, free parking and several computers available in the lobby for email and boarding passes.  Starbucks is in the lobby as well as a small bistro. No free breakfast, but a decent menu and open plan lobby with nice seating. Good prices will keep me coming back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r440731289-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>440731289</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>New Courtyard in FW</t>
+  </si>
+  <si>
+    <t>The hotel is located adjacent to the Alliance Town Square shopping area, a short drive from lots of dining and shopping options. A car is required since there is no public transportation in this area of DFW. The hotel has a modern, minimalist design. A feature we loved was the Netflix and Hulu access on the room TV so you can watch with your own account. This was our first stay at a Courtyard by Marrriott and our impression was that its amenities, compared to similar hotel chains, were lacking. The room has a small coffee maker but without tea. Also while there is a mini fridge there is no microwave. There is also no complimentary coffee/tea in the lobby area. Although we stayed at a room with two queen beds, maid service always gave two towels so we always had to request additional towels (why not just put four towels for a room that accommodates four people?). The weekend rates are well worth it but weekday rates are a bit high for what you get. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Julian S, General Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located adjacent to the Alliance Town Square shopping area, a short drive from lots of dining and shopping options. A car is required since there is no public transportation in this area of DFW. The hotel has a modern, minimalist design. A feature we loved was the Netflix and Hulu access on the room TV so you can watch with your own account. This was our first stay at a Courtyard by Marrriott and our impression was that its amenities, compared to similar hotel chains, were lacking. The room has a small coffee maker but without tea. Also while there is a mini fridge there is no microwave. There is also no complimentary coffee/tea in the lobby area. Although we stayed at a room with two queen beds, maid service always gave two towels so we always had to request additional towels (why not just put four towels for a room that accommodates four people?). The weekend rates are well worth it but weekday rates are a bit high for what you get. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r439120956-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>439120956</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Out of the traffic</t>
+  </si>
+  <si>
+    <t>This hotel appears to be brand new.  Great rates and very nice staff.  Decor was modern and comfortable.  The shower was strange without a door   but clean.  You can route around a lot of traffic from here with Google maps and some great local eateries are nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r435587335-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>435587335</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Very clean new hotel. Shower is very annoying, beyond the fact that it is a partial wall there is a long metal drain and when the water hits it the sound is very annoying plus you have to make sure to turn the knob hard to get it all the way off otherwise the water drips onto the metal drain which is even more annoying. It would be nice if tea bags were supplied with the teensy tiny coffee maker. That brings up another issue...there is no free get your own coffee in the lobby/lounge area.  They have a Starbucks and one of the mornings we were there they didn't have any coffee left. I overheard the bistro workers saying they had already dumped it out. Other guests walked away upset at not being able to get a cup of coffee.  This was at around 930 in a Sunday morning!The food at the bistro is mediocre with a big price tag. A can of beer was 6.50!!!  Ridiculous. The fire pit area is great. Maid service is lacking...they were fast but only gave us fresh towels, emptied garbage, and made up beds.  Didn't clean sinks or toilets. The exhaust fan in bathroom does nothing to remove steam from the room so you have to shower with the door open unless you want to be in a steamy room with a foggy mirror. Staff didn't seem very friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Julian S, General Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Very clean new hotel. Shower is very annoying, beyond the fact that it is a partial wall there is a long metal drain and when the water hits it the sound is very annoying plus you have to make sure to turn the knob hard to get it all the way off otherwise the water drips onto the metal drain which is even more annoying. It would be nice if tea bags were supplied with the teensy tiny coffee maker. That brings up another issue...there is no free get your own coffee in the lobby/lounge area.  They have a Starbucks and one of the mornings we were there they didn't have any coffee left. I overheard the bistro workers saying they had already dumped it out. Other guests walked away upset at not being able to get a cup of coffee.  This was at around 930 in a Sunday morning!The food at the bistro is mediocre with a big price tag. A can of beer was 6.50!!!  Ridiculous. The fire pit area is great. Maid service is lacking...they were fast but only gave us fresh towels, emptied garbage, and made up beds.  Didn't clean sinks or toilets. The exhaust fan in bathroom does nothing to remove steam from the room so you have to shower with the door open unless you want to be in a steamy room with a foggy mirror. Staff didn't seem very friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r429610083-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>429610083</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Kind and Attentive Front Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always nice to stay somewhere and see folks who genuinely want you to have an enjoyable experience. This Couryard in the Dallas Forth Worth area is clean, comfortable and convenient, and a good value at the price. At about 15 miles or so from DFW airport, logistics work as well. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r428564717-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>428564717</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>very cold all over...van stopped rides at 7 on Sunday. so only bad bar food. wine is 16.00 per Glass. bar food is awful. very long walk to anything. people are mildly friendly. will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Julian S, General Manager at Courtyard Fort Worth at Alliance Town Center, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>very cold all over...van stopped rides at 7 on Sunday. so only bad bar food. wine is 16.00 per Glass. bar food is awful. very long walk to anything. people are mildly friendly. will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r422471812-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>422471812</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Weekend Visit to Alliance Fort Worth Area</t>
+  </si>
+  <si>
+    <t>The relatively new hotel is well appointed and the staff were exceptionally friendly and helpful. I believe the hotel opened in June or July of 2016 - thus, the appointments and environment was quite new and fresh.  The pool / patio area in the back of the hotel was exceptionally relaxing and a great place to just sit and relax in the evening (Late September).  Our room was a king room and was fine.  It took a while to figure out the light switches etc and you certainly had to have long arms to turn on the lamp behind the sofa! Overall it was fine.  As is normal, the room had a refrigerator (but no microwave - as common with many courtyard properties). The bathroom was designed with a "no door" shower only.  It seems many hotels are converting to showers only instead of tub/shower combinations (although I am certain they had such rooms).  The shower got a little getting used to for this old country boy, but was OK.  One feature I wish they had was a grab bar in the front end of the shower.  There was a little one low in the back of the shower - but it seems not truly functional for a 6' 3" man.  Again - overall a fine facility with great staff and comfortable furnishings / bedrooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>The relatively new hotel is well appointed and the staff were exceptionally friendly and helpful. I believe the hotel opened in June or July of 2016 - thus, the appointments and environment was quite new and fresh.  The pool / patio area in the back of the hotel was exceptionally relaxing and a great place to just sit and relax in the evening (Late September).  Our room was a king room and was fine.  It took a while to figure out the light switches etc and you certainly had to have long arms to turn on the lamp behind the sofa! Overall it was fine.  As is normal, the room had a refrigerator (but no microwave - as common with many courtyard properties). The bathroom was designed with a "no door" shower only.  It seems many hotels are converting to showers only instead of tub/shower combinations (although I am certain they had such rooms).  The shower got a little getting used to for this old country boy, but was OK.  One feature I wish they had was a grab bar in the front end of the shower.  There was a little one low in the back of the shower - but it seems not truly functional for a 6' 3" man.  Again - overall a fine facility with great staff and comfortable furnishings / bedrooms.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r413888463-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
@@ -696,9 +899,6 @@
     <t>Nice new hotel.  Everything was clean.  The restaurant was decent, but had a limited selection of food.  I arrived in a rainstorm and outside the front entrance there was about 2 inches of water.  The hot and cold water was reversed in my sink.  I did not get maid service the second day I was there.More</t>
   </si>
   <si>
-    <t>jennysanders2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r411210566-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,9 +920,6 @@
     <t>Upon check in I had to wait for the desk clerk to finish her cigarette...we had just flown in from San Diego, CA...so we were anxious to get settled and get over to our family's house.  Room was fine, clean.  Had to continuously ask for soaps, shampoos, toiletries and towels.  We had a family of 4 staying and they never gave us four towels/washcloths and/or enough toiletries.We were there for a family wedding.  On the second morning we had no water...it was shut off and we were never notified.  Upon calling the front desk he told me it would maybe be turned back on around 1:00pm.  Which our event was starting around 2.  I said that wasn't going to work based on our time schedule and if he had any other accommodations.  None were offered.  Luckily the watered stayed on but it was cold.  Construction going on and was noisy and dusty.  I realize this hotel is rather new but the loose ends were definitely not tied up before opening.  We have been long time Marriott customers and my husband stays in multiple locations for business.  Customer service was poor and there was no sort of apology or accommodation for their lack of readiness!More</t>
   </si>
   <si>
-    <t>Ask2416</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r405932138-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,9 +938,6 @@
     <t>Stayed for one night Room wasn't ready on arrival 6pm. Staff very nice Room standard and new but the a/c system buzzes and then starts.  In the wall type.  I couldn't sleep period. Bed 7/10 Pillows 5/10. Really industrial. Management should try to sleep on these pillows.  Yikes!Starbucks / bistro. 10/10. Had a excellent no charge platinum level cappuccino.  Really good and right in the lobby at 615am Beware construction on all the highways nearby.  Plan extra 20 minutes for any trip. It took is 30 minutes to get to Capitol grill in downtown. More</t>
   </si>
   <si>
-    <t>CBEB1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r405022558-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,9 +956,6 @@
     <t>The hotel is brand new. Decor and lobby are standard Courtyard fare. The outdoor pool and firepit area were nicely done. There are a number of newish chain restaurants in walking distance as well. My only complaint - and the reason I ding'd it one green circle - was that in the bathrooms, they installed those half wall partitions next to the shower instead of a full curtain or door. I don't understand why hotels do that. After I showered the bathroom was a sloppy mess. I hate those things. If you are going to spend money outfitting a brand new hotel, why skimp on the shower doors of all things? Maybe I'm alone here, but I enjoy a good shower and nothing is more annoying than having to worry about containing the water spray to a 2x2 area because there is no shower door. Next time I'm going to stay at a hotel with shower doors.More</t>
   </si>
   <si>
-    <t>Casandra H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r399715863-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,9 +974,6 @@
     <t>I was here soon after they first opened. It still smelled new. It's located within walking distance of restaurants and shopping. You have to cross a busy intersection in order to get to the shopping area. The room was nice. I was in an accessible room. I couldn't complain about too many aspects of the hotel. I did see two spiders in my room. A big one was in the bathtub and a baby one on the wall under the tv. One good thing that I liked about this place was the amount of outlets to charge your electronics. I think I counted at least 5 USB/AC chargers. My room came with a refrigerator. The wifi worked well enough for me to stream a live session on Adobe Connect without any interruption. The hotel had a Starbucks. I didn't try it. I plan on visiting this hotel again in about a month and a half. I would stay here again.More</t>
   </si>
   <si>
-    <t>Nancy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r390240295-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -807,9 +995,6 @@
     <t>The decor of this hotel is really nice!  The pool and surrounding area was great though there could have been more pool towels provided as our group took the last ones. Nice seating outdoors. I didn't get any food so can't comment. Starbucks coffee is supposed to be available all day though I didn't get any (the desk clerk also acted as barista I think). The server was down when I checked in. I had trouble connecting to wifi but no one answered the phone when I called the front desk. He was outside having a smoke. No light bulb had been put in the fixture between the beds but being such a new hotel, I'm assuming there may be small things they didn't know weren't done. The bed was very comfortable, the air conditioning great, the room was spacious and the manager friendly. There are interesting books in the lobby to read while you relax and lots of plugs for your devices incorporated into the furniture. I plan to stay here again.More</t>
   </si>
   <si>
-    <t>Eric P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r387214731-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -823,9 +1008,6 @@
   </si>
   <si>
     <t xml:space="preserve">Loved the brand new hotel.  Very well done.  Pool was perfect.  We enjoyed the work out room.  Very close to restaurants and shopping.  The only negative we found was check in.  Had to wait a few minutes.  The gentleman checked us no problem but not very friendly.  Loved the hotel but check in makes us wonder if better options are closer to Fort Worth.  </t>
-  </si>
-  <si>
-    <t>NedMorgan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9793318-r386192510-Courtyard_Fort_Worth_at_Alliance_Town_Center-Fort_Worth_Texas.html</t>
@@ -1348,183 +1530,169 @@
       <c r="A2" t="n">
         <v>65011</v>
       </c>
-      <c r="B2" t="n">
-        <v>12517</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65011</v>
       </c>
-      <c r="B3" t="n">
-        <v>23382</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65011</v>
       </c>
-      <c r="B4" t="n">
-        <v>127387</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1536,125 +1704,123 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65011</v>
       </c>
-      <c r="B5" t="n">
-        <v>127388</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65011</v>
       </c>
-      <c r="B6" t="n">
-        <v>127389</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1666,60 +1832,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65011</v>
       </c>
-      <c r="B7" t="n">
-        <v>5658</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1731,337 +1893,315 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65011</v>
       </c>
-      <c r="B8" t="n">
-        <v>127390</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65011</v>
       </c>
-      <c r="B9" t="n">
-        <v>127391</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65011</v>
       </c>
-      <c r="B10" t="n">
-        <v>127392</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65011</v>
       </c>
-      <c r="B11" t="n">
-        <v>127393</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65011</v>
       </c>
-      <c r="B12" t="n">
-        <v>127394</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2069,248 +2209,238 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65011</v>
       </c>
-      <c r="B13" t="n">
-        <v>127395</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65011</v>
       </c>
-      <c r="B14" t="n">
-        <v>127396</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>157</v>
-      </c>
-      <c r="X14" t="s">
-        <v>158</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65011</v>
       </c>
-      <c r="B15" t="n">
-        <v>6369</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65011</v>
       </c>
-      <c r="B16" t="n">
-        <v>127397</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2321,536 +2451,488 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65011</v>
       </c>
-      <c r="B17" t="n">
-        <v>21068</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>181</v>
-      </c>
-      <c r="X17" t="s">
-        <v>182</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65011</v>
       </c>
-      <c r="B18" t="n">
-        <v>93360</v>
-      </c>
-      <c r="C18" t="s">
-        <v>184</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>191</v>
-      </c>
-      <c r="X18" t="s">
-        <v>192</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65011</v>
       </c>
-      <c r="B19" t="n">
-        <v>127398</v>
-      </c>
-      <c r="C19" t="s">
-        <v>194</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
         <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
       </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65011</v>
       </c>
-      <c r="B20" t="n">
-        <v>127390</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
-        <v>200</v>
-      </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65011</v>
       </c>
-      <c r="B21" t="n">
-        <v>6262</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>213</v>
-      </c>
-      <c r="X21" t="s">
-        <v>214</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65011</v>
       </c>
-      <c r="B22" t="n">
-        <v>127399</v>
-      </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>223</v>
-      </c>
-      <c r="X22" t="s">
-        <v>224</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65011</v>
       </c>
-      <c r="B23" t="n">
-        <v>127400</v>
-      </c>
-      <c r="C23" t="s">
-        <v>226</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65011</v>
       </c>
-      <c r="B24" t="n">
-        <v>127401</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2862,72 +2944,66 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65011</v>
       </c>
-      <c r="B25" t="n">
-        <v>127402</v>
-      </c>
-      <c r="C25" t="s">
-        <v>241</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2935,184 +3011,174 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65011</v>
       </c>
-      <c r="B26" t="n">
-        <v>127403</v>
-      </c>
-      <c r="C26" t="s">
-        <v>248</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65011</v>
       </c>
-      <c r="B27" t="n">
-        <v>18307</v>
-      </c>
-      <c r="C27" t="s">
-        <v>255</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65011</v>
       </c>
-      <c r="B28" t="n">
-        <v>8069</v>
-      </c>
-      <c r="C28" t="s">
-        <v>263</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3123,77 +3189,813 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65011</v>
       </c>
-      <c r="B29" t="n">
-        <v>127404</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>266</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
         <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>288</v>
+      </c>
+      <c r="X35" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>288</v>
+      </c>
+      <c r="X36" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+      <c r="J37" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" t="s">
+        <v>307</v>
+      </c>
+      <c r="L37" t="s">
+        <v>308</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65011</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
